--- a/оценка.xlsx
+++ b/оценка.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\exams\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12EDEDA0-8D03-0942-A7BF-1AA474FC5ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB40E0D-A1F2-4381-B61A-F2E254C15AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="759" yWindow="759" windowWidth="25135" windowHeight="13824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>C#</t>
   </si>
@@ -126,6 +124,9 @@
   </si>
   <si>
     <t>Реализовано удаление данных</t>
+  </si>
+  <si>
+    <t>Текущее</t>
   </si>
 </sst>
 </file>
@@ -446,18 +447,18 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +503,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -553,23 +557,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -577,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -585,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -593,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -601,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -609,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -617,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -628,10 +638,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -642,10 +655,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -656,10 +672,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -670,10 +689,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -684,31 +706,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f>SUM(C2:C52)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -716,52 +754,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -769,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -777,79 +830,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -857,36 +937,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -894,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -902,55 +991,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
